--- a/output/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/output/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-20T11:38:03+02:00</t>
+    <t>2023-07-20T13:16:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/output/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-20T13:16:53+02:00</t>
+    <t>2023-07-21T08:53:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -218,7 +218,7 @@
 </t>
   </si>
   <si>
-    <t>Pasient can come on short notice.</t>
+    <t>Patient can come on short notice.</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>

--- a/output/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/output/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T08:53:22+02:00</t>
+    <t>2023-07-21T09:07:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/output/StructureDefinition-no-basis-shortnotice.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-shortnotice</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>2.2.0-alpha</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T09:07:54+02:00</t>
+    <t>2023-08-24T14:49:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -186,10 +190,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -672,7 +672,7 @@
         <v>42</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>37</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -706,13 +706,13 @@
         <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -763,7 +763,7 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
@@ -778,15 +778,15 @@
         <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -809,13 +809,13 @@
         <v>37</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -854,19 +854,19 @@
         <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
@@ -878,7 +878,7 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>

--- a/output/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/output/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T14:49:19+02:00</t>
+    <t>2023-08-24T15:39:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/output/StructureDefinition-no-basis-shortnotice.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T15:39:37+02:00</t>
+    <t>2023-10-04T22:15:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/output/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T22:15:59+02:00</t>
+    <t>2023-10-04T22:20:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/output/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T22:20:28+02:00</t>
+    <t>2023-10-05T18:44:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/output/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T18:44:58+02:00</t>
+    <t>2023-10-05T18:59:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/output/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T18:59:01+02:00</t>
+    <t>2023-10-05T22:34:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/output/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T22:34:13+02:00</t>
+    <t>2023-10-05T23:14:02+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Example Publisher</t>
+    <t>Hl7 Norge</t>
   </si>
   <si>
     <t>Contact</t>
